--- a/xlsx/海峡群岛 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/海峡群岛 (加利福尼亚州)_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>政策_政策_加州_海峡群岛 (加利福尼亚州)</t>
@@ -35,49 +35,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B3%BD%E7%BE%A4%E5%B3%B6%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>海峽群島國家公園</t>
+    <t>海峡群岛国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B1%B3%E6%A0%BC%E7%88%BE%E5%B3%B6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖米格爾島 (加利福尼亞州)</t>
+    <t>圣米格尔岛 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E%E5%B3%B6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎島 (加利福尼亞州)</t>
+    <t>圣罗莎岛 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%AD%AF%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖克魯斯島</t>
+    <t>圣克鲁斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E5%8D%A1%E5%B8%95%E5%B3%B6</t>
   </si>
   <si>
-    <t>安那卡帕島</t>
+    <t>安那卡帕岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴巴拉島</t>
+    <t>圣巴巴拉岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B0%BC%E5%8F%A4%E6%8B%89%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖尼古拉斯島</t>
+    <t>圣尼古拉斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A1%E5%A1%94%E5%88%A9%E5%A8%9C%E5%B2%9B</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E5%88%A9%E9%96%80%E8%92%82%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖克利門蒂島</t>
+    <t>圣克利门蒂岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%9B%BE%E6%8B%89%E5%8E%BF</t>
